--- a/docs/取込ファイルフォーマット.xlsx
+++ b/docs/取込ファイルフォーマット.xlsx
@@ -16,7 +16,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">DPC!$A$1:$D$62</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">概要!$A$1:$Q$34</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -1110,7 +1110,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>B</a:t>
+            <a:t>C</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
@@ -1968,7 +1968,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2960,7 +2960,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/docs/取込ファイルフォーマット.xlsx
+++ b/docs/取込ファイルフォーマット.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="1" r:id="rId1"/>
@@ -16,12 +16,12 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">DPC!$A$1:$D$62</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">概要!$A$1:$Q$34</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="149">
   <si>
     <t>byouin_code</t>
   </si>
@@ -654,6 +654,17 @@
   <si>
     <t>システム設定の産科病棟と一致する場合は産科
 システム設定の集中病棟と一致する場合は集中病棟</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>payload</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ペイロード番号</t>
+    <rPh sb="5" eb="7">
+      <t>バンゴウ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -661,7 +672,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -702,6 +713,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
@@ -773,7 +791,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -787,6 +805,8 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="出力" xfId="1" builtinId="21"/>
@@ -1967,7 +1987,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -1993,7 +2013,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D73"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
@@ -2957,10 +2977,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2991,234 +3011,261 @@
       <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="1">
+      <c r="A3" s="9">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>57</v>
+      <c r="C3" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1">
-        <f>A3+1</f>
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>80</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1">
-        <f t="shared" ref="A5:A6" si="0">A4+1</f>
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>80</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1">
-        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>80</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1">
+        <f t="shared" ref="A6:A7" si="0">A6+1</f>
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D7" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="2" t="s">
+    <row r="9" spans="1:4">
+      <c r="A9" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B8" s="2"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="3" t="s">
+      <c r="B9" s="2"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B10" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C10" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1">
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="9">
         <v>0</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B11" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1">
-        <f>A10+1</f>
-        <v>1</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>57</v>
+      <c r="C11" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1">
-        <f t="shared" ref="A12:A13" si="1">A11+1</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>81</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <f>A12+1</f>
+        <v>2</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>81</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1">
-        <v>4</v>
+        <f t="shared" ref="A14:A15" si="1">A13+1</f>
+        <v>3</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>81</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1">
+        <v>4</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D16" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="2" t="s">
+    <row r="18" spans="1:4">
+      <c r="A18" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B16" s="2"/>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="3" t="s">
+      <c r="B18" s="2"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B19" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C19" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="1">
-        <v>0</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="1">
-        <f>A18+1</f>
-        <v>1</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>58</v>
-      </c>
+      <c r="D19" s="3"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1">
-        <f t="shared" ref="A20:A21" si="2">A19+1</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1">
+        <f>A20+1</f>
+        <v>1</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1">
+        <f t="shared" ref="A22:A23" si="2">A21+1</f>
+        <v>2</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D23" s="5" t="s">
         <v>60</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>